--- a/observations/orbit_plans/mtp044/nomad_mtp044_plan.xlsx
+++ b/observations/orbit_plans/mtp044/nomad_mtp044_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp044\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF5393-9497-4160-9DBC-4DFECD2CF69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEC4BA-95A1-4D67-8363-55E27EB1EC91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="4968" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="609">
   <si>
     <t>#orbitType</t>
   </si>
@@ -2224,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7763,9 +7763,6 @@
       <c r="A307">
         <v>3</v>
       </c>
-      <c r="H307" t="s">
-        <v>504</v>
-      </c>
       <c r="I307" t="s">
         <v>8</v>
       </c>
